--- a/EvaluationResults/RQ2+RQ3/3-Simple-gemini-result.xlsx
+++ b/EvaluationResults/RQ2+RQ3/3-Simple-gemini-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6665213-5C1F-0847-BF26-B1D72A0D456D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AC515C-4751-E04D-8228-F026EE6886F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="-19040" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -5767,7 +5767,8 @@
         <v>0</v>
       </c>
       <c r="J104" s="4">
-        <v>0</v>
+        <f>H104-I104</f>
+        <v>2</v>
       </c>
       <c r="K104" s="6">
         <v>0</v>
@@ -6083,7 +6084,7 @@
       </c>
       <c r="J112" s="4">
         <f t="shared" si="7"/>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K112" s="4">
         <f>SUM(K2:K111)</f>
@@ -6115,7 +6116,7 @@
       </c>
       <c r="J117" s="1">
         <f>I112/(I112+J112)</f>
-        <v>0.27450980392156865</v>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="18" customHeight="1">
@@ -6124,7 +6125,7 @@
       </c>
       <c r="J118" s="1">
         <f>2*((J116*J117)/(J116+J117))</f>
-        <v>0.33870967741935487</v>
+        <v>0.33734939759036137</v>
       </c>
     </row>
     <row r="119" spans="9:10" ht="18" customHeight="1">
@@ -6133,7 +6134,7 @@
       </c>
       <c r="J119" s="1">
         <f>(I112+L112)/(I112+J112+K112+L112)</f>
-        <v>0.92569098323516086</v>
+        <v>0.92527173913043481</v>
       </c>
     </row>
   </sheetData>
